--- a/Project 2 Alec and Nasser.xlsx
+++ b/Project 2 Alec and Nasser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bugs\Desktop\CS 2400 Project 2\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D01AE-A9DF-4099-A773-1D320644961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1D92D-BB22-4FEF-87A5-0EE51C12F799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABF7A3E8-3E3B-4A3A-83C0-97D392ED3E9F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Infix:</t>
   </si>
@@ -167,13 +167,19 @@
   </si>
   <si>
     <t>2 3*4 5-/5 6*+</t>
+  </si>
+  <si>
+    <t>OUR GITHUB REPO:</t>
+  </si>
+  <si>
+    <t>https://github.com/AlecUrbany/Project-2.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +201,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +232,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -271,12 +297,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -302,9 +330,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -618,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E837CB8D-84AF-47A6-B2FC-62A69E1E124F}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +665,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,8 +681,12 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -663,8 +700,15 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -679,7 +723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -694,7 +738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
@@ -707,7 +751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
@@ -720,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
@@ -731,7 +775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
@@ -742,7 +786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
@@ -753,7 +797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -764,7 +808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
@@ -775,7 +819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
@@ -786,7 +830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
@@ -797,7 +841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
@@ -806,10 +850,10 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,7 +1039,10 @@
       <c r="C33" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{19C0991A-5864-481C-9814-E775913E198A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>